--- a/UI/Title/Title.xlsx
+++ b/UI/Title/Title.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016027\Desktop\ゲーム開発\git2016027\03後期\UI\Title\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016008\Desktop\AGSSummer\UI\Title\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6E7419-F172-4E1E-96B3-2ADE0C66AE63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7303C1E-EE93-4E07-BB02-AB8D925B95E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{0DC3D8FA-5995-42F4-A870-F98854C30E8F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7500" xr2:uid="{0DC3D8FA-5995-42F4-A870-F98854C30E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Resource/resource/TitleLogoKijin.png</t>
+    <t>Resource/resource/TitleKey.png</t>
   </si>
   <si>
-    <t>Resource/resource/TitleKey.png</t>
+    <t>Resource/resource/Title/TitleLogo.png</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -464,16 +465,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.25" customWidth="1"/>
+    <col min="1" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>640</v>
       </c>
@@ -492,10 +493,10 @@
         <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>640</v>
       </c>
@@ -503,7 +504,7 @@
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
